--- a/User Category.xlsx
+++ b/User Category.xlsx
@@ -379,7 +379,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Educators</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>Port safety</t>
+          <t>Port Safety</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -627,56 +627,56 @@
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Not Specified</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>Another group nit listed</t>
+          <t>Comment does not include reference to specifc user or uses</t>
         </is>
       </c>
       <c r="D16" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
       <c r="A17" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Not Specified</t>
+          <t>Resilience Planning</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>Comment does not include reference to specifc user or uses</t>
+          <t>Resilience planning, identification of risks, and risk reduction</t>
         </is>
       </c>
       <c r="D17" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row outlineLevel="0" r="18">
       <c r="A18" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>Resilience Planning</t>
+          <t>Shoreline Protection</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>Resilience planning, identification of risks, and risk reduction</t>
+          <t>Erosion protection, living shorelines, etc.</t>
         </is>
       </c>
       <c r="D18" s="0">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
